--- a/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,01; 90,35</t>
+          <t>85,14; 90,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,37; 89,92</t>
+          <t>86,3; 89,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,49; 89,6</t>
+          <t>86,39; 89,56</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,27; 85,37</t>
+          <t>81,35; 85,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,16; 89,86</t>
+          <t>86,01; 89,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,27; 87,12</t>
+          <t>84,26; 87,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,13; 88,1</t>
+          <t>81,81; 88,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,06; 92,23</t>
+          <t>88,22; 92,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,65; 89,51</t>
+          <t>85,86; 89,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,99; 86,04</t>
+          <t>83,12; 86,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,16; 89,51</t>
+          <t>87,18; 89,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 87,49</t>
+          <t>85,57; 87,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>88,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,63</t>
+          <t>85,13; 90,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,3; 89,98</t>
+          <t>86,25; 89,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,39; 89,56</t>
+          <t>86,5; 89,63</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,35; 85,44</t>
+          <t>82,26; 89,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,01; 89,7</t>
+          <t>86,79; 91,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 87,12</t>
+          <t>85,04; 89,48</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>87,87%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,81; 88,03</t>
+          <t>81,64; 88,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,22; 92,32</t>
+          <t>88,36; 92,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,86; 89,6</t>
+          <t>85,76; 89,57</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>87,23%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,12; 86,05</t>
+          <t>83,62; 88,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,18; 89,5</t>
+          <t>87,75; 91,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,57; 87,59</t>
+          <t>86,12; 89,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,13; 90,73</t>
+          <t>84,95; 90,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,25; 89,91</t>
+          <t>86,26; 90,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,5; 89,63</t>
+          <t>86,49; 89,73</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,26; 89,95</t>
+          <t>82,27; 89,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,79; 91,94</t>
+          <t>86,9; 91,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,04; 89,48</t>
+          <t>85,0; 89,56</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,64; 88,03</t>
+          <t>81,9; 88,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,36; 92,4</t>
+          <t>88,39; 92,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,76; 89,57</t>
+          <t>85,91; 89,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,62; 88,7</t>
+          <t>83,77; 88,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,75; 91,08</t>
+          <t>87,75; 90,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,12; 89,0</t>
+          <t>86,1; 88,91</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>450103</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>662404</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1112506</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>434932; 462561</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>647282; 675399</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1091798; 1132793</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2556</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1933458</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1977766</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3911224</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1874260; 2028298</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1936006; 2042025</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3830337; 4035538</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>547872</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>586591</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1134463</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>525753; 565611</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>573783; 600590</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1109174; 1158101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4719</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7596</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2931434</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3226761</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6158193</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2875097; 3040432</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3182882; 3298780</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6078276; 6276506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>